--- a/1_data/cox_params.xlsx
+++ b/1_data/cox_params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagir\OneDrive\Desktop\donor-return-dynamics\1_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B14A278-251B-4A1C-A580-1BC8659E9D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE6C093-B14F-4B5A-BFDB-1C83A5231FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{F4F55BA5-2886-49C4-A33D-F8AF2E4336F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>SANBS</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>DERIVED</t>
-  </si>
-  <si>
     <t>Used as-is.</t>
   </si>
   <si>
@@ -71,134 +68,116 @@
     <t>Units of red blood cell loss in the last 24 months since the index donation</t>
   </si>
   <si>
-    <t>NA (default value of 500 mL for all donors)</t>
-  </si>
-  <si>
-    <t>DONATION_VOLUME_DRAWN</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
     <t>Volume of red blood cell loss at this donation (mL)</t>
   </si>
   <si>
-    <t>hgb_ferr: Set NAs (11.9%) to 10 years ago (10*365 days); hgb_only: Set NAs (10.4%) to 10 years ago (10*365 days)</t>
-  </si>
-  <si>
     <t>Days since the last red blood cell loss</t>
   </si>
   <si>
-    <t>hgb_ferr: Set NAs (99.5%) to 10 years ago (10*365 days); hgb_only: Set NAs (99.6%) to 10 years ago (10*365 days)</t>
-  </si>
-  <si>
     <t>Days since the last double red blood cell donation</t>
   </si>
   <si>
-    <t>don_Sequence</t>
-  </si>
-  <si>
     <t>Total lifetime donations</t>
   </si>
   <si>
-    <t>HB_Value</t>
-  </si>
-  <si>
-    <t>Fingerstick HGB or HCT</t>
-  </si>
-  <si>
-    <t>ABO_RH</t>
-  </si>
-  <si>
-    <t>Used 8 blood types: A-, A+, AB-, AB+, B-, B+, O-, O+ (accounts for 99.7% of all samples)</t>
-  </si>
-  <si>
-    <t>DONOR_ABORH</t>
-  </si>
-  <si>
     <t>factor</t>
   </si>
   <si>
-    <t>ABO-Rh blood type</t>
-  </si>
-  <si>
-    <t>Not measured</t>
-  </si>
-  <si>
-    <t>Weight (pounds)</t>
-  </si>
-  <si>
-    <t>Height (inches)</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Body Mass Index</t>
-  </si>
-  <si>
-    <t>Estimated Blood Volume (Nadler's equations)</t>
-  </si>
-  <si>
-    <t>Total body red blood cell volume</t>
-  </si>
-  <si>
-    <t>Estimated percent red blood cell volume loss at visit</t>
-  </si>
-  <si>
     <t>Visit_Age</t>
   </si>
   <si>
-    <t>DONOR_GENDER</t>
-  </si>
-  <si>
-    <t>Age of donor at index donation</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Gender or sex</t>
-  </si>
-  <si>
     <t>race</t>
   </si>
   <si>
-    <t>Code Mixed Race and unknown as "Other"</t>
-  </si>
-  <si>
     <t>Race/ethnicity (Asian, Black, Other, White)</t>
   </si>
   <si>
-    <t>Ferritin</t>
-  </si>
-  <si>
-    <t>FERRITIN</t>
-  </si>
-  <si>
-    <t>Ferritin (mg/dL)</t>
-  </si>
-  <si>
-    <t>Log of ferritin (base 10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time in days between an index donation and a subsequent follow up donation </t>
-  </si>
-  <si>
-    <t>Hemoglobin level at follow up donation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferritin level (mg/dL) at follow up donation </t>
+    <t>First_time</t>
+  </si>
+  <si>
+    <t>Fixed_mobile</t>
+  </si>
+  <si>
+    <t>donation_product</t>
+  </si>
+  <si>
+    <t>OUTCOME_TYPE</t>
+  </si>
+  <si>
+    <t>cum_lifetime_donations</t>
+  </si>
+  <si>
+    <t>unit_rbc_loss</t>
+  </si>
+  <si>
+    <t>rbc_loss_last_12_months</t>
+  </si>
+  <si>
+    <t>rbc_loss_last_24_months</t>
+  </si>
+  <si>
+    <t>days_since_last_rbc_loss</t>
+  </si>
+  <si>
+    <t>days_since_last_drbc_loss</t>
+  </si>
+  <si>
+    <t>high school age</t>
+  </si>
+  <si>
+    <t>Mobile_Count</t>
+  </si>
+  <si>
+    <t>If donor is below the age of 20</t>
+  </si>
+  <si>
+    <t>Derived</t>
+  </si>
+  <si>
+    <t>If Visit_Age&lt;20</t>
+  </si>
+  <si>
+    <t>Number of unique occurrences of varibale, MobileID in a year</t>
+  </si>
+  <si>
+    <t>Derived using the Outcome variable</t>
+  </si>
+  <si>
+    <t>Derived using the Fixed columns</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>Number of times mobile drive operates in a year</t>
+  </si>
+  <si>
+    <t>Age of donor</t>
+  </si>
+  <si>
+    <t>If it is donor's first time donating</t>
+  </si>
+  <si>
+    <t>If visit was at a fixed site</t>
+  </si>
+  <si>
+    <t>Sex of the donor</t>
+  </si>
+  <si>
+    <t>Donation product donated/intended to donate</t>
+  </si>
+  <si>
+    <t>Outcome of the visit-success, hgb deferral, or other deferral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,14 +187,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -232,7 +203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,16 +222,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,383 +544,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F1CA40-B898-4FC7-8E23-188A50925132}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23.1328125" customWidth="1"/>
+    <col min="2" max="2" width="25.9296875" customWidth="1"/>
+    <col min="3" max="3" width="26.53125" customWidth="1"/>
+    <col min="4" max="4" width="26.265625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>51</v>
-      </c>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -959,5 +830,6 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1_data/cox_params.xlsx
+++ b/1_data/cox_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagir\OneDrive\Desktop\donor-return-dynamics\1_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE6C093-B14F-4B5A-BFDB-1C83A5231FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1340E570-0887-49FF-B972-E1467C0CA035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{F4F55BA5-2886-49C4-A33D-F8AF2E4336F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
   <si>
     <t>SANBS</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Race/ethnicity (Asian, Black, Other, White)</t>
   </si>
   <si>
-    <t>First_time</t>
-  </si>
-  <si>
     <t>Fixed_mobile</t>
   </si>
   <si>
@@ -171,6 +168,60 @@
   </si>
   <si>
     <t>Outcome of the visit-success, hgb deferral, or other deferral</t>
+  </si>
+  <si>
+    <t>DONOR_AGE_AT_DONATION</t>
+  </si>
+  <si>
+    <t>first_time</t>
+  </si>
+  <si>
+    <t>DONOR_GENDER</t>
+  </si>
+  <si>
+    <t>DONATION_PROCEDURE_TYPE</t>
+  </si>
+  <si>
+    <t>RACE_ETHNICITY</t>
+  </si>
+  <si>
+    <t>Derived using the hgb value</t>
+  </si>
+  <si>
+    <t>DONATION_VOLUME DRAWN</t>
+  </si>
+  <si>
+    <t>PHLEBOTOMY GROUP</t>
+  </si>
+  <si>
+    <t>OUTCOME_TYPE_no_draw</t>
+  </si>
+  <si>
+    <t>DONOR_BORN _IN_US</t>
+  </si>
+  <si>
+    <t>DONOR_EDU</t>
+  </si>
+  <si>
+    <t>DONOR_WEIGHT</t>
+  </si>
+  <si>
+    <t>DONOR_HEIGHT</t>
+  </si>
+  <si>
+    <t>fixed_mobile_pattern</t>
+  </si>
+  <si>
+    <t>HGB_value</t>
+  </si>
+  <si>
+    <t>Derived from DONOR_EDUCATION_DESC</t>
+  </si>
+  <si>
+    <t>Derived from DONOR_COUNTRY_OF_BIRTH</t>
+  </si>
+  <si>
+    <t>Derived from MQ_ANSWER with code 5U and if 5V exists, it replaces the previous value</t>
   </si>
 </sst>
 </file>
@@ -220,16 +271,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F1CA40-B898-4FC7-8E23-188A50925132}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -591,80 +639,116 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
@@ -675,25 +759,37 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
+      <c r="A9" t="s">
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>23</v>
+      <c r="A10" t="s">
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -703,11 +799,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>32</v>
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -717,41 +819,59 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
@@ -759,13 +879,19 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="F15" t="s">
@@ -773,56 +899,141 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
